--- a/docs/ValueSet-CodigoWhoVacunaVS.xlsx
+++ b/docs/ValueSet-CodigoWhoVacunaVS.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3409</t>
+    <t>0.1.41</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-CodigoWhoVacunaVS.xlsx
+++ b/docs/ValueSet-CodigoWhoVacunaVS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.41</t>
+    <t>0.1.42</t>
   </si>
   <si>
     <t>Name</t>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
@@ -308,66 +311,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -389,28 +394,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -432,28 +437,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-CodigoWhoVacunaVS.xlsx
+++ b/docs/ValueSet-CodigoWhoVacunaVS.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.42</t>
+    <t>0.1.43</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-CodigoWhoVacunaVS.xlsx
+++ b/docs/ValueSet-CodigoWhoVacunaVS.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from WHODrug PMID" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from WHODrug DrugCode" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from apiportaldemo.wh" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.43</t>
+    <t>0.1.44</t>
   </si>
   <si>
     <t>Name</t>
@@ -112,10 +111,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://paho.org/fhir/esavi/CodeSystem/WHODrugPMID</t>
-  </si>
-  <si>
-    <t>https://paho.org/fhir/esavi/CodeSystem/WHODrugDC</t>
+    <t>https://apiportaldemo.who-umc.org</t>
   </si>
 </sst>
 </file>
@@ -421,47 +417,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/docs/ValueSet-CodigoWhoVacunaVS.xlsx
+++ b/docs/ValueSet-CodigoWhoVacunaVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.44</t>
+    <t>0.1.45</t>
   </si>
   <si>
     <t>Name</t>
